--- a/sources/Latvian_data.xlsx
+++ b/sources/Latvian_data.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1062" uniqueCount="561">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1164" uniqueCount="561">
   <si>
     <t>language_no</t>
   </si>
@@ -1638,21 +1638,6 @@
     <t>NOM</t>
   </si>
   <si>
-    <t>DATNOM</t>
-  </si>
-  <si>
-    <t>ar</t>
-  </si>
-  <si>
-    <t>NOMar</t>
-  </si>
-  <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>NOMno</t>
-  </si>
-  <si>
     <t>TR</t>
   </si>
   <si>
@@ -1662,49 +1647,64 @@
     <t>XY</t>
   </si>
   <si>
-    <t>DATGEN</t>
-  </si>
-  <si>
-    <t>NOMDAT</t>
-  </si>
-  <si>
     <t>LOC</t>
   </si>
   <si>
-    <t>NOMLOC</t>
-  </si>
-  <si>
-    <t>par ACC</t>
-  </si>
-  <si>
-    <t>NOMparACC</t>
-  </si>
-  <si>
     <t>*</t>
   </si>
   <si>
     <t>ACC</t>
   </si>
   <si>
-    <t>ACCparACC</t>
-  </si>
-  <si>
-    <t>pec</t>
-  </si>
-  <si>
-    <t>NOMPEC</t>
-  </si>
-  <si>
-    <t>pie</t>
-  </si>
-  <si>
-    <t>NOMPIE</t>
-  </si>
-  <si>
-    <t>uz</t>
-  </si>
-  <si>
-    <t>NOMUZ</t>
+    <t>parACC</t>
+  </si>
+  <si>
+    <t>ACC_parACC</t>
+  </si>
+  <si>
+    <t>DAT_NOM</t>
+  </si>
+  <si>
+    <t>DAT_GEN</t>
+  </si>
+  <si>
+    <t>NOM_DAT</t>
+  </si>
+  <si>
+    <t>NOM_LOC</t>
+  </si>
+  <si>
+    <t>NOM_parACC</t>
+  </si>
+  <si>
+    <t>arACC</t>
+  </si>
+  <si>
+    <t>NOM_arACC</t>
+  </si>
+  <si>
+    <t>noGEN</t>
+  </si>
+  <si>
+    <t>NOM_noGEN</t>
+  </si>
+  <si>
+    <t>pecGEN</t>
+  </si>
+  <si>
+    <t>NOM_pecGEN</t>
+  </si>
+  <si>
+    <t>pieGEN</t>
+  </si>
+  <si>
+    <t>NOM_pieGEN</t>
+  </si>
+  <si>
+    <t>uzACC</t>
+  </si>
+  <si>
+    <t>NOM_uzACC</t>
   </si>
 </sst>
 </file>
@@ -2088,8 +2088,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S131"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+    <sheetView tabSelected="1" topLeftCell="A107" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2:L131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -2208,7 +2208,7 @@
         <v>8</v>
       </c>
       <c r="L2" s="12" t="s">
-        <v>538</v>
+        <v>546</v>
       </c>
       <c r="M2" s="5"/>
       <c r="N2" s="5"/>
@@ -2245,13 +2245,13 @@
         <v>537</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>539</v>
+        <v>551</v>
       </c>
       <c r="K3" s="11" t="s">
         <v>9</v>
       </c>
       <c r="L3" s="12" t="s">
-        <v>540</v>
+        <v>552</v>
       </c>
       <c r="M3" s="5"/>
       <c r="N3" s="5"/>
@@ -2288,13 +2288,13 @@
         <v>537</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>541</v>
+        <v>553</v>
       </c>
       <c r="K4" s="11" t="s">
         <v>9</v>
       </c>
       <c r="L4" s="12" t="s">
-        <v>542</v>
+        <v>554</v>
       </c>
       <c r="M4" s="5"/>
       <c r="N4" s="5"/>
@@ -2328,14 +2328,16 @@
       </c>
       <c r="H5" s="7"/>
       <c r="I5" s="11" t="s">
+        <v>537</v>
+      </c>
+      <c r="J5" s="11" t="s">
         <v>543</v>
       </c>
-      <c r="J5" s="11"/>
       <c r="K5" s="11" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="L5" s="12" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="M5" s="5"/>
       <c r="N5" s="5"/>
@@ -2372,13 +2374,13 @@
         <v>536</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="K6" s="11" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="L6" s="12" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="M6" s="5"/>
       <c r="N6" s="5"/>
@@ -2412,14 +2414,16 @@
       </c>
       <c r="H7" s="7"/>
       <c r="I7" s="11" t="s">
+        <v>537</v>
+      </c>
+      <c r="J7" s="11" t="s">
         <v>543</v>
       </c>
-      <c r="J7" s="11"/>
       <c r="K7" s="11" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="L7" s="12" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="M7" s="5"/>
       <c r="N7" s="5"/>
@@ -2462,7 +2466,7 @@
         <v>9</v>
       </c>
       <c r="L8" s="12" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="M8" s="5"/>
       <c r="N8" s="5"/>
@@ -2496,14 +2500,16 @@
       </c>
       <c r="H9" s="7"/>
       <c r="I9" s="11" t="s">
+        <v>537</v>
+      </c>
+      <c r="J9" s="11" t="s">
         <v>543</v>
       </c>
-      <c r="J9" s="11"/>
       <c r="K9" s="11" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="L9" s="12" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="M9" s="5"/>
       <c r="N9" s="5"/>
@@ -2537,14 +2543,16 @@
       </c>
       <c r="H10" s="7"/>
       <c r="I10" s="11" t="s">
+        <v>537</v>
+      </c>
+      <c r="J10" s="11" t="s">
         <v>543</v>
       </c>
-      <c r="J10" s="11"/>
       <c r="K10" s="11" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="L10" s="12" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="M10" s="5"/>
       <c r="N10" s="5"/>
@@ -2578,14 +2586,16 @@
       </c>
       <c r="H11" s="7"/>
       <c r="I11" s="11" t="s">
+        <v>537</v>
+      </c>
+      <c r="J11" s="11" t="s">
         <v>543</v>
       </c>
-      <c r="J11" s="11"/>
       <c r="K11" s="11" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="L11" s="12" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="M11" s="5"/>
       <c r="N11" s="5"/>
@@ -2622,13 +2632,13 @@
         <v>537</v>
       </c>
       <c r="J12" s="11" t="s">
-        <v>539</v>
+        <v>551</v>
       </c>
       <c r="K12" s="11" t="s">
         <v>9</v>
       </c>
       <c r="L12" s="12" t="s">
-        <v>540</v>
+        <v>552</v>
       </c>
       <c r="M12" s="5"/>
       <c r="N12" s="5"/>
@@ -2665,7 +2675,7 @@
         <v>537</v>
       </c>
       <c r="J13" s="11" t="s">
-        <v>548</v>
+        <v>541</v>
       </c>
       <c r="K13" s="11" t="s">
         <v>9</v>
@@ -2705,14 +2715,16 @@
       </c>
       <c r="H14" s="7"/>
       <c r="I14" s="11" t="s">
+        <v>537</v>
+      </c>
+      <c r="J14" s="11" t="s">
         <v>543</v>
       </c>
-      <c r="J14" s="11"/>
       <c r="K14" s="11" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="L14" s="12" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="M14" s="5"/>
       <c r="N14" s="5"/>
@@ -2749,13 +2761,13 @@
         <v>537</v>
       </c>
       <c r="J15" s="11" t="s">
-        <v>541</v>
+        <v>553</v>
       </c>
       <c r="K15" s="11" t="s">
         <v>9</v>
       </c>
       <c r="L15" s="12" t="s">
-        <v>542</v>
+        <v>554</v>
       </c>
       <c r="M15" s="5"/>
       <c r="N15" s="5"/>
@@ -2789,14 +2801,16 @@
       </c>
       <c r="H16" s="7"/>
       <c r="I16" s="11" t="s">
+        <v>537</v>
+      </c>
+      <c r="J16" s="11" t="s">
         <v>543</v>
       </c>
-      <c r="J16" s="11"/>
       <c r="K16" s="11" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="L16" s="12" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="M16" s="5"/>
       <c r="N16" s="5"/>
@@ -2830,14 +2844,16 @@
       </c>
       <c r="H17" s="7"/>
       <c r="I17" s="11" t="s">
+        <v>537</v>
+      </c>
+      <c r="J17" s="11" t="s">
         <v>543</v>
       </c>
-      <c r="J17" s="11"/>
       <c r="K17" s="11" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="L17" s="12" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="M17" s="5"/>
       <c r="N17" s="5"/>
@@ -2871,14 +2887,16 @@
       </c>
       <c r="H18" s="7"/>
       <c r="I18" s="11" t="s">
+        <v>537</v>
+      </c>
+      <c r="J18" s="11" t="s">
         <v>543</v>
       </c>
-      <c r="J18" s="11"/>
       <c r="K18" s="11" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="L18" s="12" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="M18" s="5"/>
       <c r="N18" s="5"/>
@@ -2912,14 +2930,16 @@
       </c>
       <c r="H19" s="7"/>
       <c r="I19" s="11" t="s">
+        <v>537</v>
+      </c>
+      <c r="J19" s="11" t="s">
         <v>543</v>
       </c>
-      <c r="J19" s="11"/>
       <c r="K19" s="11" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="L19" s="12" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="M19" s="5"/>
       <c r="N19" s="5"/>
@@ -2953,14 +2973,16 @@
       </c>
       <c r="H20" s="7"/>
       <c r="I20" s="11" t="s">
+        <v>537</v>
+      </c>
+      <c r="J20" s="11" t="s">
         <v>543</v>
       </c>
-      <c r="J20" s="11"/>
       <c r="K20" s="11" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="L20" s="12" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="M20" s="5"/>
       <c r="N20" s="5"/>
@@ -2994,14 +3016,16 @@
       </c>
       <c r="H21" s="7"/>
       <c r="I21" s="11" t="s">
+        <v>537</v>
+      </c>
+      <c r="J21" s="11" t="s">
         <v>543</v>
       </c>
-      <c r="J21" s="11"/>
       <c r="K21" s="11" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="L21" s="12" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="M21" s="5"/>
       <c r="N21" s="5"/>
@@ -3035,14 +3059,16 @@
       </c>
       <c r="H22" s="7"/>
       <c r="I22" s="11" t="s">
+        <v>537</v>
+      </c>
+      <c r="J22" s="11" t="s">
         <v>543</v>
       </c>
-      <c r="J22" s="11"/>
       <c r="K22" s="11" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="L22" s="12" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="M22" s="5"/>
       <c r="N22" s="5"/>
@@ -3085,7 +3111,7 @@
         <v>9</v>
       </c>
       <c r="L23" s="12" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="M23" s="5"/>
       <c r="N23" s="5"/>
@@ -3122,13 +3148,13 @@
         <v>537</v>
       </c>
       <c r="J24" s="11" t="s">
-        <v>539</v>
+        <v>551</v>
       </c>
       <c r="K24" s="11" t="s">
         <v>9</v>
       </c>
       <c r="L24" s="12" t="s">
-        <v>540</v>
+        <v>552</v>
       </c>
       <c r="M24" s="5"/>
       <c r="N24" s="5"/>
@@ -3165,13 +3191,13 @@
         <v>537</v>
       </c>
       <c r="J25" s="11" t="s">
-        <v>539</v>
+        <v>551</v>
       </c>
       <c r="K25" s="11" t="s">
         <v>9</v>
       </c>
       <c r="L25" s="12" t="s">
-        <v>540</v>
+        <v>552</v>
       </c>
       <c r="M25" s="5"/>
       <c r="N25" s="5"/>
@@ -3208,13 +3234,13 @@
         <v>537</v>
       </c>
       <c r="J26" s="11" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="K26" s="11" t="s">
         <v>9</v>
       </c>
       <c r="L26" s="12" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="M26" s="5"/>
       <c r="N26" s="5"/>
@@ -3248,14 +3274,16 @@
       </c>
       <c r="H27" s="7"/>
       <c r="I27" s="11" t="s">
+        <v>537</v>
+      </c>
+      <c r="J27" s="11" t="s">
         <v>543</v>
       </c>
-      <c r="J27" s="11"/>
       <c r="K27" s="11" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="L27" s="12" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="M27" s="5"/>
       <c r="N27" s="5"/>
@@ -3289,14 +3317,16 @@
       </c>
       <c r="H28" s="7"/>
       <c r="I28" s="11" t="s">
+        <v>537</v>
+      </c>
+      <c r="J28" s="11" t="s">
         <v>543</v>
       </c>
-      <c r="J28" s="11"/>
       <c r="K28" s="11" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="L28" s="12" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="M28" s="5"/>
       <c r="N28" s="5"/>
@@ -3330,14 +3360,16 @@
       </c>
       <c r="H29" s="7"/>
       <c r="I29" s="11" t="s">
+        <v>537</v>
+      </c>
+      <c r="J29" s="11" t="s">
         <v>543</v>
       </c>
-      <c r="J29" s="11"/>
       <c r="K29" s="11" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="L29" s="12" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="M29" s="5"/>
       <c r="N29" s="5"/>
@@ -3374,13 +3406,13 @@
         <v>537</v>
       </c>
       <c r="J30" s="11" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="K30" s="11" t="s">
         <v>9</v>
       </c>
       <c r="L30" s="12" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="M30" s="5"/>
       <c r="N30" s="5"/>
@@ -3417,13 +3449,13 @@
         <v>537</v>
       </c>
       <c r="J31" s="11" t="s">
-        <v>541</v>
+        <v>553</v>
       </c>
       <c r="K31" s="11" t="s">
         <v>9</v>
       </c>
       <c r="L31" s="12" t="s">
-        <v>542</v>
+        <v>554</v>
       </c>
       <c r="M31" s="5"/>
       <c r="N31" s="5"/>
@@ -3457,14 +3489,16 @@
       </c>
       <c r="H32" s="7"/>
       <c r="I32" s="11" t="s">
+        <v>537</v>
+      </c>
+      <c r="J32" s="11" t="s">
         <v>543</v>
       </c>
-      <c r="J32" s="11"/>
       <c r="K32" s="11" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="L32" s="12" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="M32" s="5"/>
       <c r="N32" s="5"/>
@@ -3501,13 +3535,13 @@
         <v>537</v>
       </c>
       <c r="J33" s="11" t="s">
-        <v>539</v>
+        <v>551</v>
       </c>
       <c r="K33" s="11" t="s">
         <v>9</v>
       </c>
       <c r="L33" s="12" t="s">
-        <v>540</v>
+        <v>552</v>
       </c>
       <c r="M33" s="5"/>
       <c r="N33" s="5"/>
@@ -3541,14 +3575,16 @@
       </c>
       <c r="H34" s="7"/>
       <c r="I34" s="11" t="s">
+        <v>537</v>
+      </c>
+      <c r="J34" s="11" t="s">
         <v>543</v>
       </c>
-      <c r="J34" s="11"/>
       <c r="K34" s="11" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="L34" s="12" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="M34" s="5"/>
       <c r="N34" s="5"/>
@@ -3582,14 +3618,16 @@
       </c>
       <c r="H35" s="7"/>
       <c r="I35" s="11" t="s">
+        <v>537</v>
+      </c>
+      <c r="J35" s="11" t="s">
         <v>543</v>
       </c>
-      <c r="J35" s="11"/>
       <c r="K35" s="11" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="L35" s="8" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="M35" s="5"/>
       <c r="N35" s="5"/>
@@ -3626,13 +3664,13 @@
         <v>537</v>
       </c>
       <c r="J36" s="11" t="s">
-        <v>541</v>
+        <v>553</v>
       </c>
       <c r="K36" s="11" t="s">
         <v>9</v>
       </c>
       <c r="L36" s="12" t="s">
-        <v>542</v>
+        <v>554</v>
       </c>
       <c r="M36" s="5"/>
       <c r="N36" s="5"/>
@@ -3666,14 +3704,16 @@
       </c>
       <c r="H37" s="7"/>
       <c r="I37" s="11" t="s">
+        <v>537</v>
+      </c>
+      <c r="J37" s="11" t="s">
         <v>543</v>
       </c>
-      <c r="J37" s="11"/>
       <c r="K37" s="11" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="L37" s="12" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="M37" s="5"/>
       <c r="N37" s="5"/>
@@ -3710,13 +3750,13 @@
         <v>537</v>
       </c>
       <c r="J38" s="11" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="K38" s="11" t="s">
         <v>9</v>
       </c>
       <c r="L38" s="12" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="M38" s="5"/>
       <c r="N38" s="5"/>
@@ -3759,7 +3799,7 @@
         <v>8</v>
       </c>
       <c r="L39" s="12" t="s">
-        <v>538</v>
+        <v>546</v>
       </c>
       <c r="M39" s="5"/>
       <c r="N39" s="5"/>
@@ -3793,14 +3833,16 @@
       </c>
       <c r="H40" s="7"/>
       <c r="I40" s="11" t="s">
+        <v>537</v>
+      </c>
+      <c r="J40" s="11" t="s">
         <v>543</v>
       </c>
-      <c r="J40" s="11"/>
       <c r="K40" s="11" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="L40" s="12" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="M40" s="5"/>
       <c r="N40" s="5"/>
@@ -3834,14 +3876,16 @@
       </c>
       <c r="H41" s="7"/>
       <c r="I41" s="11" t="s">
+        <v>537</v>
+      </c>
+      <c r="J41" s="11" t="s">
         <v>543</v>
       </c>
-      <c r="J41" s="11"/>
       <c r="K41" s="11" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="L41" s="12" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="M41" s="5"/>
       <c r="N41" s="5"/>
@@ -3884,7 +3928,7 @@
         <v>9</v>
       </c>
       <c r="L42" s="12" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="M42" s="5"/>
       <c r="N42" s="5"/>
@@ -3918,14 +3962,16 @@
       </c>
       <c r="H43" s="7"/>
       <c r="I43" s="11" t="s">
+        <v>537</v>
+      </c>
+      <c r="J43" s="11" t="s">
         <v>543</v>
       </c>
-      <c r="J43" s="11"/>
       <c r="K43" s="11" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="L43" s="12" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="M43" s="5"/>
       <c r="N43" s="5"/>
@@ -3959,14 +4005,16 @@
       </c>
       <c r="H44" s="7"/>
       <c r="I44" s="11" t="s">
+        <v>537</v>
+      </c>
+      <c r="J44" s="11" t="s">
         <v>543</v>
       </c>
-      <c r="J44" s="11"/>
       <c r="K44" s="11" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="L44" s="12" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="M44" s="5"/>
       <c r="N44" s="5"/>
@@ -4000,14 +4048,16 @@
       </c>
       <c r="H45" s="7"/>
       <c r="I45" s="11" t="s">
+        <v>537</v>
+      </c>
+      <c r="J45" s="11" t="s">
         <v>543</v>
       </c>
-      <c r="J45" s="11"/>
       <c r="K45" s="11" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="L45" s="12" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="M45" s="5"/>
       <c r="N45" s="5"/>
@@ -4050,7 +4100,7 @@
         <v>9</v>
       </c>
       <c r="L46" s="12" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="M46" s="5"/>
       <c r="N46" s="5"/>
@@ -4084,14 +4134,16 @@
       </c>
       <c r="H47" s="7"/>
       <c r="I47" s="11" t="s">
+        <v>537</v>
+      </c>
+      <c r="J47" s="11" t="s">
         <v>543</v>
       </c>
-      <c r="J47" s="11"/>
       <c r="K47" s="11" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="L47" s="12" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="M47" s="5"/>
       <c r="N47" s="5"/>
@@ -4128,13 +4180,13 @@
         <v>537</v>
       </c>
       <c r="J48" s="11" t="s">
-        <v>539</v>
+        <v>551</v>
       </c>
       <c r="K48" s="11" t="s">
         <v>9</v>
       </c>
       <c r="L48" s="12" t="s">
-        <v>540</v>
+        <v>552</v>
       </c>
       <c r="M48" s="5"/>
       <c r="N48" s="5"/>
@@ -4168,10 +4220,14 @@
       </c>
       <c r="H49" s="7"/>
       <c r="I49" s="11" t="s">
-        <v>552</v>
-      </c>
-      <c r="J49" s="11"/>
-      <c r="K49" s="11"/>
+        <v>542</v>
+      </c>
+      <c r="J49" s="11" t="s">
+        <v>542</v>
+      </c>
+      <c r="K49" s="11" t="s">
+        <v>542</v>
+      </c>
       <c r="L49" s="8"/>
       <c r="M49" s="5"/>
       <c r="N49" s="5"/>
@@ -4205,14 +4261,16 @@
       </c>
       <c r="H50" s="7"/>
       <c r="I50" s="11" t="s">
+        <v>537</v>
+      </c>
+      <c r="J50" s="11" t="s">
         <v>543</v>
       </c>
-      <c r="J50" s="11"/>
       <c r="K50" s="11" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="L50" s="12" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="M50" s="5"/>
       <c r="N50" s="5"/>
@@ -4246,14 +4304,16 @@
       </c>
       <c r="H51" s="7"/>
       <c r="I51" s="11" t="s">
+        <v>537</v>
+      </c>
+      <c r="J51" s="11" t="s">
         <v>543</v>
       </c>
-      <c r="J51" s="11"/>
       <c r="K51" s="11" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="L51" s="12" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="M51" s="5"/>
       <c r="N51" s="5"/>
@@ -4287,16 +4347,16 @@
       </c>
       <c r="H52" s="7"/>
       <c r="I52" s="11" t="s">
-        <v>553</v>
+        <v>543</v>
       </c>
       <c r="J52" s="11" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="K52" s="11" t="s">
+        <v>540</v>
+      </c>
+      <c r="L52" s="12" t="s">
         <v>545</v>
-      </c>
-      <c r="L52" s="12" t="s">
-        <v>554</v>
       </c>
       <c r="M52" s="5"/>
       <c r="N52" s="5"/>
@@ -4330,14 +4390,16 @@
       </c>
       <c r="H53" s="7"/>
       <c r="I53" s="11" t="s">
+        <v>537</v>
+      </c>
+      <c r="J53" s="11" t="s">
         <v>543</v>
       </c>
-      <c r="J53" s="11"/>
       <c r="K53" s="11" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="L53" s="12" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="M53" s="5"/>
       <c r="N53" s="5"/>
@@ -4380,7 +4442,7 @@
         <v>9</v>
       </c>
       <c r="L54" s="12" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="M54" s="5"/>
       <c r="N54" s="5"/>
@@ -4417,13 +4479,13 @@
         <v>537</v>
       </c>
       <c r="J55" s="11" t="s">
-        <v>539</v>
+        <v>551</v>
       </c>
       <c r="K55" s="11" t="s">
         <v>9</v>
       </c>
       <c r="L55" s="12" t="s">
-        <v>540</v>
+        <v>552</v>
       </c>
       <c r="M55" s="5"/>
       <c r="N55" s="5"/>
@@ -4457,14 +4519,16 @@
       </c>
       <c r="H56" s="7"/>
       <c r="I56" s="11" t="s">
+        <v>537</v>
+      </c>
+      <c r="J56" s="11" t="s">
         <v>543</v>
       </c>
-      <c r="J56" s="11"/>
       <c r="K56" s="11" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="L56" s="12" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="M56" s="5"/>
       <c r="N56" s="5"/>
@@ -4501,13 +4565,13 @@
         <v>536</v>
       </c>
       <c r="J57" s="11" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="K57" s="11" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="L57" s="12" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="M57" s="5"/>
       <c r="N57" s="5"/>
@@ -4541,14 +4605,16 @@
       </c>
       <c r="H58" s="7"/>
       <c r="I58" s="11" t="s">
+        <v>537</v>
+      </c>
+      <c r="J58" s="11" t="s">
         <v>543</v>
       </c>
-      <c r="J58" s="11"/>
       <c r="K58" s="11" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="L58" s="12" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="M58" s="5"/>
       <c r="N58" s="5"/>
@@ -4591,7 +4657,7 @@
         <v>8</v>
       </c>
       <c r="L59" s="12" t="s">
-        <v>538</v>
+        <v>546</v>
       </c>
       <c r="M59" s="5"/>
       <c r="N59" s="5"/>
@@ -4634,7 +4700,7 @@
         <v>8</v>
       </c>
       <c r="L60" s="12" t="s">
-        <v>538</v>
+        <v>546</v>
       </c>
       <c r="M60" s="5"/>
       <c r="N60" s="5"/>
@@ -4668,14 +4734,16 @@
       </c>
       <c r="H61" s="7"/>
       <c r="I61" s="11" t="s">
+        <v>537</v>
+      </c>
+      <c r="J61" s="11" t="s">
         <v>543</v>
       </c>
-      <c r="J61" s="11"/>
       <c r="K61" s="11" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="L61" s="12" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="M61" s="5"/>
       <c r="N61" s="5"/>
@@ -4718,7 +4786,7 @@
         <v>8</v>
       </c>
       <c r="L62" s="12" t="s">
-        <v>538</v>
+        <v>546</v>
       </c>
       <c r="M62" s="5"/>
       <c r="N62" s="5"/>
@@ -4761,7 +4829,7 @@
         <v>9</v>
       </c>
       <c r="L63" s="12" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="M63" s="5"/>
       <c r="N63" s="5"/>
@@ -4795,14 +4863,16 @@
       </c>
       <c r="H64" s="7"/>
       <c r="I64" s="11" t="s">
+        <v>537</v>
+      </c>
+      <c r="J64" s="11" t="s">
         <v>543</v>
       </c>
-      <c r="J64" s="11"/>
       <c r="K64" s="11" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="L64" s="12" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="M64" s="5"/>
       <c r="N64" s="5"/>
@@ -4839,13 +4909,13 @@
         <v>537</v>
       </c>
       <c r="J65" s="11" t="s">
-        <v>541</v>
+        <v>553</v>
       </c>
       <c r="K65" s="11" t="s">
         <v>9</v>
       </c>
       <c r="L65" s="12" t="s">
-        <v>542</v>
+        <v>554</v>
       </c>
       <c r="M65" s="5"/>
       <c r="N65" s="5"/>
@@ -4882,13 +4952,13 @@
         <v>537</v>
       </c>
       <c r="J66" s="11" t="s">
-        <v>541</v>
+        <v>553</v>
       </c>
       <c r="K66" s="11" t="s">
         <v>9</v>
       </c>
       <c r="L66" s="12" t="s">
-        <v>542</v>
+        <v>554</v>
       </c>
       <c r="M66" s="5"/>
       <c r="N66" s="5"/>
@@ -4922,10 +4992,14 @@
       </c>
       <c r="H67" s="7"/>
       <c r="I67" s="11" t="s">
-        <v>552</v>
-      </c>
-      <c r="J67" s="11"/>
-      <c r="K67" s="11"/>
+        <v>542</v>
+      </c>
+      <c r="J67" s="11" t="s">
+        <v>542</v>
+      </c>
+      <c r="K67" s="11" t="s">
+        <v>542</v>
+      </c>
       <c r="L67" s="8"/>
       <c r="M67" s="5"/>
       <c r="N67" s="5"/>
@@ -5002,10 +5076,14 @@
       </c>
       <c r="H69" s="7"/>
       <c r="I69" s="11" t="s">
-        <v>552</v>
-      </c>
-      <c r="J69" s="11"/>
-      <c r="K69" s="11"/>
+        <v>542</v>
+      </c>
+      <c r="J69" s="11" t="s">
+        <v>542</v>
+      </c>
+      <c r="K69" s="11" t="s">
+        <v>542</v>
+      </c>
       <c r="L69" s="8"/>
       <c r="M69" s="5"/>
       <c r="N69" s="5"/>
@@ -5039,14 +5117,16 @@
       </c>
       <c r="H70" s="7"/>
       <c r="I70" s="11" t="s">
+        <v>537</v>
+      </c>
+      <c r="J70" s="11" t="s">
         <v>543</v>
       </c>
-      <c r="J70" s="11"/>
       <c r="K70" s="11" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="L70" s="12" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="M70" s="5"/>
       <c r="N70" s="5"/>
@@ -5080,14 +5160,16 @@
       </c>
       <c r="H71" s="7"/>
       <c r="I71" s="11" t="s">
+        <v>537</v>
+      </c>
+      <c r="J71" s="11" t="s">
         <v>543</v>
       </c>
-      <c r="J71" s="11"/>
       <c r="K71" s="11" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="L71" s="12" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="M71" s="5"/>
       <c r="N71" s="5"/>
@@ -5121,10 +5203,14 @@
       </c>
       <c r="H72" s="7"/>
       <c r="I72" s="11" t="s">
-        <v>552</v>
-      </c>
-      <c r="J72" s="11"/>
-      <c r="K72" s="11"/>
+        <v>542</v>
+      </c>
+      <c r="J72" s="11" t="s">
+        <v>542</v>
+      </c>
+      <c r="K72" s="11" t="s">
+        <v>542</v>
+      </c>
       <c r="L72" s="8"/>
       <c r="M72" s="5"/>
       <c r="N72" s="5"/>
@@ -5158,10 +5244,14 @@
       </c>
       <c r="H73" s="7"/>
       <c r="I73" s="11" t="s">
-        <v>552</v>
-      </c>
-      <c r="J73" s="11"/>
-      <c r="K73" s="11"/>
+        <v>542</v>
+      </c>
+      <c r="J73" s="11" t="s">
+        <v>542</v>
+      </c>
+      <c r="K73" s="11" t="s">
+        <v>542</v>
+      </c>
       <c r="L73" s="8"/>
       <c r="M73" s="5"/>
       <c r="N73" s="5"/>
@@ -5195,10 +5285,14 @@
       </c>
       <c r="H74" s="7"/>
       <c r="I74" s="11" t="s">
-        <v>552</v>
-      </c>
-      <c r="J74" s="11"/>
-      <c r="K74" s="11"/>
+        <v>542</v>
+      </c>
+      <c r="J74" s="11" t="s">
+        <v>542</v>
+      </c>
+      <c r="K74" s="11" t="s">
+        <v>542</v>
+      </c>
       <c r="L74" s="8"/>
       <c r="M74" s="5"/>
       <c r="N74" s="5"/>
@@ -5232,14 +5326,16 @@
       </c>
       <c r="H75" s="7"/>
       <c r="I75" s="11" t="s">
+        <v>537</v>
+      </c>
+      <c r="J75" s="11" t="s">
         <v>543</v>
       </c>
-      <c r="J75" s="11"/>
       <c r="K75" s="11" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="L75" s="12" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="M75" s="5"/>
       <c r="N75" s="5"/>
@@ -5273,14 +5369,16 @@
       </c>
       <c r="H76" s="7"/>
       <c r="I76" s="11" t="s">
+        <v>537</v>
+      </c>
+      <c r="J76" s="11" t="s">
         <v>543</v>
       </c>
-      <c r="J76" s="11"/>
       <c r="K76" s="11" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="L76" s="12" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="M76" s="5"/>
       <c r="N76" s="5"/>
@@ -5314,14 +5412,16 @@
       </c>
       <c r="H77" s="7"/>
       <c r="I77" s="11" t="s">
+        <v>537</v>
+      </c>
+      <c r="J77" s="11" t="s">
         <v>543</v>
       </c>
-      <c r="J77" s="11"/>
       <c r="K77" s="11" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="L77" s="12" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="M77" s="5"/>
       <c r="N77" s="5"/>
@@ -5364,7 +5464,7 @@
         <v>9</v>
       </c>
       <c r="L78" s="12" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="M78" s="5"/>
       <c r="N78" s="5"/>
@@ -5398,14 +5498,16 @@
       </c>
       <c r="H79" s="7"/>
       <c r="I79" s="11" t="s">
+        <v>537</v>
+      </c>
+      <c r="J79" s="11" t="s">
         <v>543</v>
       </c>
-      <c r="J79" s="11"/>
       <c r="K79" s="11" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="L79" s="12" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="M79" s="5"/>
       <c r="N79" s="5"/>
@@ -5442,7 +5544,7 @@
         <v>537</v>
       </c>
       <c r="J80" s="11" t="s">
-        <v>548</v>
+        <v>541</v>
       </c>
       <c r="K80" s="11" t="s">
         <v>9</v>
@@ -5485,13 +5587,13 @@
         <v>537</v>
       </c>
       <c r="J81" s="11" t="s">
-        <v>539</v>
+        <v>551</v>
       </c>
       <c r="K81" s="11" t="s">
         <v>9</v>
       </c>
       <c r="L81" s="12" t="s">
-        <v>540</v>
+        <v>552</v>
       </c>
       <c r="M81" s="5"/>
       <c r="N81" s="5"/>
@@ -5577,7 +5679,7 @@
         <v>9</v>
       </c>
       <c r="L83" s="12" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="M83" s="5"/>
       <c r="N83" s="5"/>
@@ -5614,13 +5716,13 @@
         <v>537</v>
       </c>
       <c r="J84" s="11" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="K84" s="11" t="s">
         <v>9</v>
       </c>
       <c r="L84" s="12" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="M84" s="5"/>
       <c r="N84" s="5"/>
@@ -5657,13 +5759,13 @@
         <v>537</v>
       </c>
       <c r="J85" s="11" t="s">
-        <v>539</v>
+        <v>551</v>
       </c>
       <c r="K85" s="11" t="s">
         <v>9</v>
       </c>
       <c r="L85" s="12" t="s">
-        <v>540</v>
+        <v>552</v>
       </c>
       <c r="M85" s="5"/>
       <c r="N85" s="5"/>
@@ -5697,14 +5799,16 @@
       </c>
       <c r="H86" s="7"/>
       <c r="I86" s="11" t="s">
+        <v>537</v>
+      </c>
+      <c r="J86" s="11" t="s">
         <v>543</v>
       </c>
-      <c r="J86" s="11"/>
       <c r="K86" s="11" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="L86" s="12" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="M86" s="5"/>
       <c r="N86" s="5"/>
@@ -5738,14 +5842,16 @@
       </c>
       <c r="H87" s="7"/>
       <c r="I87" s="11" t="s">
+        <v>537</v>
+      </c>
+      <c r="J87" s="11" t="s">
         <v>543</v>
       </c>
-      <c r="J87" s="11"/>
       <c r="K87" s="11" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="L87" s="12" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="M87" s="5"/>
       <c r="N87" s="5"/>
@@ -5779,10 +5885,14 @@
       </c>
       <c r="H88" s="7"/>
       <c r="I88" s="11" t="s">
-        <v>552</v>
-      </c>
-      <c r="J88" s="11"/>
-      <c r="K88" s="11"/>
+        <v>542</v>
+      </c>
+      <c r="J88" s="11" t="s">
+        <v>542</v>
+      </c>
+      <c r="K88" s="11" t="s">
+        <v>542</v>
+      </c>
       <c r="L88" s="8"/>
       <c r="M88" s="5"/>
       <c r="N88" s="5"/>
@@ -5859,10 +5969,14 @@
       </c>
       <c r="H90" s="7"/>
       <c r="I90" s="11" t="s">
-        <v>552</v>
-      </c>
-      <c r="J90" s="11"/>
-      <c r="K90" s="11"/>
+        <v>542</v>
+      </c>
+      <c r="J90" s="11" t="s">
+        <v>542</v>
+      </c>
+      <c r="K90" s="11" t="s">
+        <v>542</v>
+      </c>
       <c r="L90" s="8"/>
       <c r="M90" s="5"/>
       <c r="N90" s="5"/>
@@ -5899,13 +6013,13 @@
         <v>537</v>
       </c>
       <c r="J91" s="11" t="s">
-        <v>541</v>
+        <v>553</v>
       </c>
       <c r="K91" s="11" t="s">
         <v>9</v>
       </c>
       <c r="L91" s="12" t="s">
-        <v>542</v>
+        <v>554</v>
       </c>
       <c r="M91" s="5"/>
       <c r="N91" s="5"/>
@@ -5942,7 +6056,7 @@
         <v>537</v>
       </c>
       <c r="J92" s="11" t="s">
-        <v>548</v>
+        <v>541</v>
       </c>
       <c r="K92" s="11" t="s">
         <v>9</v>
@@ -5991,7 +6105,7 @@
         <v>9</v>
       </c>
       <c r="L93" s="8" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="M93" s="5"/>
       <c r="N93" s="5"/>
@@ -6025,10 +6139,14 @@
       </c>
       <c r="H94" s="7"/>
       <c r="I94" s="11" t="s">
-        <v>552</v>
-      </c>
-      <c r="J94" s="11"/>
-      <c r="K94" s="11"/>
+        <v>542</v>
+      </c>
+      <c r="J94" s="11" t="s">
+        <v>542</v>
+      </c>
+      <c r="K94" s="11" t="s">
+        <v>542</v>
+      </c>
       <c r="L94" s="8"/>
       <c r="M94" s="5"/>
       <c r="N94" s="5"/>
@@ -6062,10 +6180,14 @@
       </c>
       <c r="H95" s="7"/>
       <c r="I95" s="11" t="s">
-        <v>552</v>
-      </c>
-      <c r="J95" s="11"/>
-      <c r="K95" s="11"/>
+        <v>542</v>
+      </c>
+      <c r="J95" s="11" t="s">
+        <v>542</v>
+      </c>
+      <c r="K95" s="11" t="s">
+        <v>542</v>
+      </c>
       <c r="L95" s="8"/>
       <c r="M95" s="5"/>
       <c r="N95" s="5"/>
@@ -6142,14 +6264,16 @@
       </c>
       <c r="H97" s="7"/>
       <c r="I97" s="11" t="s">
+        <v>537</v>
+      </c>
+      <c r="J97" s="11" t="s">
         <v>543</v>
       </c>
-      <c r="J97" s="11"/>
       <c r="K97" s="11" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="L97" s="12" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="M97" s="5"/>
       <c r="N97" s="5"/>
@@ -6186,13 +6310,13 @@
         <v>537</v>
       </c>
       <c r="J98" s="11" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="K98" s="11" t="s">
         <v>9</v>
       </c>
       <c r="L98" s="12" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="M98" s="5"/>
       <c r="N98" s="5"/>
@@ -6226,10 +6350,14 @@
       </c>
       <c r="H99" s="7"/>
       <c r="I99" s="11" t="s">
-        <v>552</v>
-      </c>
-      <c r="J99" s="11"/>
-      <c r="K99" s="11"/>
+        <v>542</v>
+      </c>
+      <c r="J99" s="11" t="s">
+        <v>542</v>
+      </c>
+      <c r="K99" s="11" t="s">
+        <v>542</v>
+      </c>
       <c r="L99" s="8"/>
       <c r="M99" s="5"/>
       <c r="N99" s="5"/>
@@ -6263,10 +6391,14 @@
       </c>
       <c r="H100" s="7"/>
       <c r="I100" s="11" t="s">
-        <v>552</v>
-      </c>
-      <c r="J100" s="11"/>
-      <c r="K100" s="11"/>
+        <v>542</v>
+      </c>
+      <c r="J100" s="11" t="s">
+        <v>542</v>
+      </c>
+      <c r="K100" s="11" t="s">
+        <v>542</v>
+      </c>
       <c r="L100" s="8"/>
       <c r="M100" s="5"/>
       <c r="N100" s="5"/>
@@ -6300,14 +6432,16 @@
       </c>
       <c r="H101" s="7"/>
       <c r="I101" s="11" t="s">
+        <v>537</v>
+      </c>
+      <c r="J101" s="11" t="s">
         <v>543</v>
       </c>
-      <c r="J101" s="11"/>
       <c r="K101" s="11" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="L101" s="12" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="M101" s="5"/>
       <c r="N101" s="5"/>
@@ -6341,10 +6475,14 @@
       </c>
       <c r="H102" s="7"/>
       <c r="I102" s="11" t="s">
-        <v>552</v>
-      </c>
-      <c r="J102" s="11"/>
-      <c r="K102" s="11"/>
+        <v>542</v>
+      </c>
+      <c r="J102" s="11" t="s">
+        <v>542</v>
+      </c>
+      <c r="K102" s="11" t="s">
+        <v>542</v>
+      </c>
       <c r="L102" s="8"/>
       <c r="M102" s="5"/>
       <c r="N102" s="5"/>
@@ -6378,10 +6516,14 @@
       </c>
       <c r="H103" s="7"/>
       <c r="I103" s="11" t="s">
-        <v>552</v>
-      </c>
-      <c r="J103" s="11"/>
-      <c r="K103" s="11"/>
+        <v>542</v>
+      </c>
+      <c r="J103" s="11" t="s">
+        <v>542</v>
+      </c>
+      <c r="K103" s="11" t="s">
+        <v>542</v>
+      </c>
       <c r="L103" s="8"/>
       <c r="M103" s="5"/>
       <c r="N103" s="5"/>
@@ -6415,14 +6557,16 @@
       </c>
       <c r="H104" s="7"/>
       <c r="I104" s="11" t="s">
+        <v>537</v>
+      </c>
+      <c r="J104" s="11" t="s">
         <v>543</v>
       </c>
-      <c r="J104" s="11"/>
       <c r="K104" s="11" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="L104" s="12" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="M104" s="5"/>
       <c r="N104" s="5"/>
@@ -6459,7 +6603,7 @@
         <v>537</v>
       </c>
       <c r="J105" s="11" t="s">
-        <v>548</v>
+        <v>541</v>
       </c>
       <c r="K105" s="11" t="s">
         <v>9</v>
@@ -6499,14 +6643,16 @@
       </c>
       <c r="H106" s="7"/>
       <c r="I106" s="11" t="s">
+        <v>537</v>
+      </c>
+      <c r="J106" s="11" t="s">
         <v>543</v>
       </c>
-      <c r="J106" s="11"/>
       <c r="K106" s="11" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="L106" s="12" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="M106" s="5"/>
       <c r="N106" s="5"/>
@@ -6549,7 +6695,7 @@
         <v>9</v>
       </c>
       <c r="L107" s="12" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="M107" s="5"/>
       <c r="N107" s="5"/>
@@ -6583,14 +6729,16 @@
       </c>
       <c r="H108" s="7"/>
       <c r="I108" s="11" t="s">
+        <v>537</v>
+      </c>
+      <c r="J108" s="11" t="s">
         <v>543</v>
       </c>
-      <c r="J108" s="11"/>
       <c r="K108" s="11" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="L108" s="12" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="M108" s="5"/>
       <c r="N108" s="5"/>
@@ -6624,14 +6772,16 @@
       </c>
       <c r="H109" s="7"/>
       <c r="I109" s="11" t="s">
+        <v>537</v>
+      </c>
+      <c r="J109" s="11" t="s">
         <v>543</v>
       </c>
-      <c r="J109" s="11"/>
       <c r="K109" s="11" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="L109" s="12" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="M109" s="5"/>
       <c r="N109" s="5"/>
@@ -6665,14 +6815,16 @@
       </c>
       <c r="H110" s="7"/>
       <c r="I110" s="11" t="s">
+        <v>537</v>
+      </c>
+      <c r="J110" s="11" t="s">
         <v>543</v>
       </c>
-      <c r="J110" s="11"/>
       <c r="K110" s="11" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="L110" s="12" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="M110" s="5"/>
       <c r="N110" s="5"/>
@@ -6706,14 +6858,16 @@
       </c>
       <c r="H111" s="7"/>
       <c r="I111" s="11" t="s">
+        <v>537</v>
+      </c>
+      <c r="J111" s="11" t="s">
         <v>543</v>
       </c>
-      <c r="J111" s="11"/>
       <c r="K111" s="11" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="L111" s="12" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="M111" s="5"/>
       <c r="N111" s="5"/>
@@ -6747,14 +6901,16 @@
       </c>
       <c r="H112" s="7"/>
       <c r="I112" s="11" t="s">
+        <v>537</v>
+      </c>
+      <c r="J112" s="11" t="s">
         <v>543</v>
       </c>
-      <c r="J112" s="11"/>
       <c r="K112" s="11" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="L112" s="12" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="M112" s="5"/>
       <c r="N112" s="5"/>
@@ -6788,10 +6944,14 @@
       </c>
       <c r="H113" s="7"/>
       <c r="I113" s="11" t="s">
-        <v>552</v>
-      </c>
-      <c r="J113" s="11"/>
-      <c r="K113" s="11"/>
+        <v>542</v>
+      </c>
+      <c r="J113" s="11" t="s">
+        <v>542</v>
+      </c>
+      <c r="K113" s="11" t="s">
+        <v>542</v>
+      </c>
       <c r="L113" s="8"/>
       <c r="M113" s="5"/>
       <c r="N113" s="5"/>
@@ -6828,7 +6988,7 @@
         <v>537</v>
       </c>
       <c r="J114" s="11" t="s">
-        <v>548</v>
+        <v>541</v>
       </c>
       <c r="K114" s="11" t="s">
         <v>9</v>
@@ -6877,7 +7037,7 @@
         <v>9</v>
       </c>
       <c r="L115" s="12" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="M115" s="5"/>
       <c r="N115" s="5"/>
@@ -6911,10 +7071,14 @@
       </c>
       <c r="H116" s="7"/>
       <c r="I116" s="11" t="s">
-        <v>552</v>
-      </c>
-      <c r="J116" s="11"/>
-      <c r="K116" s="11"/>
+        <v>542</v>
+      </c>
+      <c r="J116" s="11" t="s">
+        <v>542</v>
+      </c>
+      <c r="K116" s="11" t="s">
+        <v>542</v>
+      </c>
       <c r="L116" s="8"/>
       <c r="M116" s="5"/>
       <c r="N116" s="5"/>
@@ -6948,14 +7112,16 @@
       </c>
       <c r="H117" s="7"/>
       <c r="I117" s="11" t="s">
+        <v>537</v>
+      </c>
+      <c r="J117" s="11" t="s">
         <v>543</v>
       </c>
-      <c r="J117" s="11"/>
       <c r="K117" s="11" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="L117" s="8" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="M117" s="5"/>
       <c r="N117" s="5"/>
@@ -6989,10 +7155,14 @@
       </c>
       <c r="H118" s="7"/>
       <c r="I118" s="11" t="s">
-        <v>552</v>
-      </c>
-      <c r="J118" s="11"/>
-      <c r="K118" s="11"/>
+        <v>542</v>
+      </c>
+      <c r="J118" s="11" t="s">
+        <v>542</v>
+      </c>
+      <c r="K118" s="11" t="s">
+        <v>542</v>
+      </c>
       <c r="L118" s="8"/>
       <c r="M118" s="5"/>
       <c r="N118" s="5"/>
@@ -7029,13 +7199,13 @@
         <v>537</v>
       </c>
       <c r="J119" s="11" t="s">
-        <v>539</v>
+        <v>551</v>
       </c>
       <c r="K119" s="11" t="s">
         <v>9</v>
       </c>
       <c r="L119" s="12" t="s">
-        <v>540</v>
+        <v>552</v>
       </c>
       <c r="M119" s="5"/>
       <c r="N119" s="5"/>
@@ -7069,14 +7239,16 @@
       </c>
       <c r="H120" s="7"/>
       <c r="I120" s="11" t="s">
+        <v>537</v>
+      </c>
+      <c r="J120" s="11" t="s">
         <v>543</v>
       </c>
-      <c r="J120" s="11"/>
       <c r="K120" s="11" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="L120" s="12" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="M120" s="5"/>
       <c r="N120" s="5"/>
@@ -7110,10 +7282,14 @@
       </c>
       <c r="H121" s="7"/>
       <c r="I121" s="11" t="s">
-        <v>552</v>
-      </c>
-      <c r="J121" s="11"/>
-      <c r="K121" s="11"/>
+        <v>542</v>
+      </c>
+      <c r="J121" s="11" t="s">
+        <v>542</v>
+      </c>
+      <c r="K121" s="11" t="s">
+        <v>542</v>
+      </c>
       <c r="L121" s="8"/>
       <c r="M121" s="5"/>
       <c r="N121" s="5"/>
@@ -7147,10 +7323,14 @@
       </c>
       <c r="H122" s="7"/>
       <c r="I122" s="11" t="s">
-        <v>552</v>
-      </c>
-      <c r="J122" s="11"/>
-      <c r="K122" s="11"/>
+        <v>542</v>
+      </c>
+      <c r="J122" s="11" t="s">
+        <v>542</v>
+      </c>
+      <c r="K122" s="11" t="s">
+        <v>542</v>
+      </c>
       <c r="L122" s="8"/>
       <c r="M122" s="5"/>
       <c r="N122" s="5"/>
@@ -7227,10 +7407,14 @@
       </c>
       <c r="H124" s="7"/>
       <c r="I124" s="11" t="s">
-        <v>552</v>
-      </c>
-      <c r="J124" s="11"/>
-      <c r="K124" s="11"/>
+        <v>542</v>
+      </c>
+      <c r="J124" s="11" t="s">
+        <v>542</v>
+      </c>
+      <c r="K124" s="11" t="s">
+        <v>542</v>
+      </c>
       <c r="L124" s="8"/>
       <c r="M124" s="5"/>
       <c r="N124" s="5"/>
@@ -7264,10 +7448,14 @@
       </c>
       <c r="H125" s="7"/>
       <c r="I125" s="11" t="s">
-        <v>552</v>
-      </c>
-      <c r="J125" s="11"/>
-      <c r="K125" s="11"/>
+        <v>542</v>
+      </c>
+      <c r="J125" s="11" t="s">
+        <v>542</v>
+      </c>
+      <c r="K125" s="11" t="s">
+        <v>542</v>
+      </c>
       <c r="L125" s="8"/>
       <c r="M125" s="5"/>
       <c r="N125" s="5"/>
@@ -7301,10 +7489,14 @@
       </c>
       <c r="H126" s="7"/>
       <c r="I126" s="11" t="s">
-        <v>552</v>
-      </c>
-      <c r="J126" s="11"/>
-      <c r="K126" s="11"/>
+        <v>542</v>
+      </c>
+      <c r="J126" s="11" t="s">
+        <v>542</v>
+      </c>
+      <c r="K126" s="11" t="s">
+        <v>542</v>
+      </c>
       <c r="L126" s="8"/>
       <c r="M126" s="5"/>
       <c r="N126" s="5"/>
@@ -7338,10 +7530,14 @@
       </c>
       <c r="H127" s="7"/>
       <c r="I127" s="11" t="s">
-        <v>552</v>
-      </c>
-      <c r="J127" s="11"/>
-      <c r="K127" s="11"/>
+        <v>542</v>
+      </c>
+      <c r="J127" s="11" t="s">
+        <v>542</v>
+      </c>
+      <c r="K127" s="11" t="s">
+        <v>542</v>
+      </c>
       <c r="L127" s="8"/>
       <c r="M127" s="5"/>
       <c r="N127" s="5"/>
@@ -7375,10 +7571,14 @@
       </c>
       <c r="H128" s="7"/>
       <c r="I128" s="11" t="s">
-        <v>552</v>
-      </c>
-      <c r="J128" s="11"/>
-      <c r="K128" s="11"/>
+        <v>542</v>
+      </c>
+      <c r="J128" s="11" t="s">
+        <v>542</v>
+      </c>
+      <c r="K128" s="11" t="s">
+        <v>542</v>
+      </c>
       <c r="L128" s="8"/>
       <c r="M128" s="5"/>
       <c r="N128" s="5"/>
@@ -7412,10 +7612,14 @@
       </c>
       <c r="H129" s="7"/>
       <c r="I129" s="11" t="s">
-        <v>552</v>
-      </c>
-      <c r="J129" s="11"/>
-      <c r="K129" s="11"/>
+        <v>542</v>
+      </c>
+      <c r="J129" s="11" t="s">
+        <v>542</v>
+      </c>
+      <c r="K129" s="11" t="s">
+        <v>542</v>
+      </c>
       <c r="L129" s="8"/>
       <c r="M129" s="5"/>
       <c r="N129" s="5"/>
@@ -7458,7 +7662,7 @@
         <v>9</v>
       </c>
       <c r="L130" s="12" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="M130" s="5"/>
       <c r="N130" s="5"/>
@@ -7495,13 +7699,13 @@
         <v>537</v>
       </c>
       <c r="J131" s="11" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="K131" s="11" t="s">
         <v>9</v>
       </c>
       <c r="L131" s="12" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="M131" s="5"/>
       <c r="N131" s="5"/>
